--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph Thaler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B3562-33F3-4355-ACB9-65B45E45A946}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B616B-0567-437E-B417-E982176FC65C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
     <sheet name="Übersicht erledigter Aufgaben" sheetId="2" r:id="rId2"/>
     <sheet name="MO 30.09.2019 - SYP1" sheetId="1" r:id="rId3"/>
+    <sheet name="MO 03.10.2019 - WINF" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -107,9 +108,6 @@
     <t>MO. / 30.09.2019</t>
   </si>
   <si>
-    <t>SYP1 / 120 min</t>
-  </si>
-  <si>
     <t>Zu Erledigen</t>
   </si>
   <si>
@@ -138,6 +136,45 @@
   </si>
   <si>
     <t>hoch</t>
+  </si>
+  <si>
+    <t>DO. / 03.10.2019</t>
+  </si>
+  <si>
+    <t>WINF</t>
+  </si>
+  <si>
+    <t>Erstellung UserStorys &amp; Datenbank/Klassenmodelle</t>
+  </si>
+  <si>
+    <t>Do. /03.10.2019</t>
+  </si>
+  <si>
+    <t>Erstellung von User Storys</t>
+  </si>
+  <si>
+    <t>Update von konzeptionellen Datenbankmodell</t>
+  </si>
+  <si>
+    <t>Update von logischem Datenbankmodell</t>
+  </si>
+  <si>
+    <t>Erstellen von Klassenmodell</t>
+  </si>
+  <si>
+    <t>Erstellen von UserStorys &amp; Backlog</t>
+  </si>
+  <si>
+    <t>MO. / 03.10.2019</t>
+  </si>
+  <si>
+    <t>SYP1 / 100 min</t>
+  </si>
+  <si>
+    <t>WINF / 50 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung von Dokumenten für Projektdokumentation </t>
   </si>
 </sst>
 </file>
@@ -239,27 +276,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -296,99 +318,103 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -706,204 +732,216 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1"/>
-    <col min="5" max="5" width="49.796875" customWidth="1"/>
-    <col min="6" max="6" width="22.46484375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:7" s="11" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="21.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="21.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="33">
-        <v>120</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="26">
+        <v>100</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+    <row r="4" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="26">
+        <v>50</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -912,103 +950,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AB570-BFC1-4B04-BC88-2752E218D317}">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="29.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20">
-        <v>120</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="17">
+        <v>100</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="19">
+        <v>100</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="21">
+        <v>100</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+    <row r="6" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24">
-        <v>120</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="22"/>
-      <c r="C5" s="26" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="23">
+        <v>100</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21">
+        <v>50</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="23">
+        <v>70</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="23">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="23">
         <v>20</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27">
-        <v>120</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="22"/>
-      <c r="C6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30">
-        <v>120</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="F10" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="17">
+        <v>50</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="30">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -1023,230 +1261,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E0382-0F61-4224-9B3A-0C9BB82260A0}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.19921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.46484375" customWidth="1"/>
-    <col min="7" max="7" width="25.46484375" customWidth="1"/>
-    <col min="8" max="8" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="2:7" s="4" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="9" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D14" s="12">
         <v>100</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E14" s="12">
         <v>200</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="4" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="17" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="21" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="2:7" s="16" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1257,4 +1488,294 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFFA1E6-71D5-476B-ABB3-FAFF8885E385}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15">
+        <v>50</v>
+      </c>
+      <c r="E11" s="15">
+        <v>100</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15">
+        <v>70</v>
+      </c>
+      <c r="E14" s="15">
+        <v>70</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15">
+        <v>20</v>
+      </c>
+      <c r="E16" s="15">
+        <v>20</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B616B-0567-437E-B417-E982176FC65C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48653F6-C45D-4B4B-9947-B140656A5034}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="1" activeTab="4" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
     <sheet name="Übersicht erledigter Aufgaben" sheetId="2" r:id="rId2"/>
     <sheet name="MO 30.09.2019 - SYP1" sheetId="1" r:id="rId3"/>
     <sheet name="MO 03.10.2019 - WINF" sheetId="6" r:id="rId4"/>
+    <sheet name="MO 07.10.2019 - SYP1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -175,6 +176,36 @@
   </si>
   <si>
     <t xml:space="preserve">Vorbereitung von Dokumenten für Projektdokumentation </t>
+  </si>
+  <si>
+    <t>SYP1 / 100min</t>
+  </si>
+  <si>
+    <t>Grafiken zu allen (3) Iterationen</t>
+  </si>
+  <si>
+    <t>User Story List (nur wirkliche US - ohne BL Items)</t>
+  </si>
+  <si>
+    <t>BL Überarbeiten</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>Zwischengespräch mit MUH</t>
+  </si>
+  <si>
+    <t>ASS; GRF; DRA; THC</t>
+  </si>
+  <si>
+    <t>siehe "Zu Erledigen"</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>sehr hoch</t>
   </si>
 </sst>
 </file>
@@ -316,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,21 +422,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,6 +430,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,19 +772,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="64.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.1328125" customWidth="1"/>
+    <col min="5" max="5" width="64.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" customWidth="1"/>
+    <col min="7" max="7" width="22.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -767,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="21.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="21.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="25" t="s">
         <v>23</v>
       </c>
@@ -787,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="25" t="s">
         <v>34</v>
       </c>
@@ -807,7 +844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="26"/>
@@ -815,7 +852,7 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -823,7 +860,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="26"/>
@@ -831,7 +868,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -839,7 +876,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
@@ -847,7 +884,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -855,7 +892,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -863,7 +900,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -871,7 +908,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -879,7 +916,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -887,7 +924,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -895,7 +932,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -903,7 +940,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
@@ -911,7 +948,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
@@ -919,7 +956,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
@@ -927,7 +964,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
@@ -935,7 +972,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
@@ -953,26 +990,26 @@
   <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
@@ -980,15 +1017,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="17">
         <v>100</v>
       </c>
@@ -996,12 +1033,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
@@ -1009,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
       <c r="C5" s="31" t="s">
         <v>20</v>
@@ -1022,7 +1059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16"/>
       <c r="C6" s="32" t="s">
         <v>20</v>
@@ -1035,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="32" t="s">
         <v>41</v>
@@ -1063,7 +1100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="32" t="s">
         <v>39</v>
@@ -1076,7 +1113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="32" t="s">
         <v>40</v>
@@ -1089,169 +1126,169 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="17">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B18" s="16"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B19" s="16"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="16"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B26" s="16"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B27" s="16"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B29" s="16"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B30" s="16"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B31" s="16"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B32" s="16"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B34" s="16"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B35" s="16"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B36" s="16"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1265,26 +1302,26 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1295,14 +1332,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +1350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1335,7 +1372,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1343,7 +1380,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1363,8 +1400,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1372,12 +1409,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
@@ -1397,7 +1434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1425,7 +1462,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1444,7 +1481,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1452,7 +1489,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1471,7 +1508,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1492,32 +1529,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFFA1E6-71D5-476B-ABB3-FAFF8885E385}">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1528,14 +1565,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
@@ -1546,7 +1583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1568,7 +1605,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1576,7 +1613,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
@@ -1616,27 +1653,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15">
-        <v>50</v>
-      </c>
-      <c r="E11" s="15">
-        <v>100</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="15" t="s">
         <v>41</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="15" t="s">
         <v>39</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
@@ -1716,26 +1734,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="15">
+        <v>80</v>
+      </c>
+      <c r="E17" s="15">
+        <v>80</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1743,32 +1773,328 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC4F49-D022-4F6F-A786-75A55A7C7901}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="29">
+        <v>50</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="29">
+        <v>30</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="29">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="29">
+        <v>30</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="29">
+        <v>50</v>
+      </c>
+      <c r="E12" s="29">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48653F6-C45D-4B4B-9947-B140656A5034}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE726CE6-8E99-46FA-825E-811CF964DA07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="1" activeTab="4" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="59">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>sehr hoch</t>
+  </si>
+  <si>
+    <t>DRA; GRF</t>
+  </si>
+  <si>
+    <t>Person(en)</t>
   </si>
 </sst>
 </file>
@@ -1822,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC4F49-D022-4F6F-A786-75A55A7C7901}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1895,7 +1901,9 @@
       <c r="C6" s="29">
         <v>50</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="29" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1917,9 @@
       <c r="C7" s="29">
         <v>30</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="29" t="s">
         <v>33</v>
       </c>
@@ -1923,7 +1933,9 @@
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="29" t="s">
         <v>51</v>
       </c>
@@ -1937,7 +1949,9 @@
       <c r="C9" s="29">
         <v>30</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="29" t="s">
         <v>56</v>
       </c>
@@ -2041,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>15</v>

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE726CE6-8E99-46FA-825E-811CF964DA07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA42754-B16E-484C-BE08-7B0D13DBB7F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="1" activeTab="4" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="2" activeTab="5" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MO 30.09.2019 - SYP1" sheetId="1" r:id="rId3"/>
     <sheet name="MO 03.10.2019 - WINF" sheetId="6" r:id="rId4"/>
     <sheet name="MO 07.10.2019 - SYP1" sheetId="8" r:id="rId5"/>
+    <sheet name="MO 14.10.2019 - SYP1" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -212,6 +213,9 @@
   </si>
   <si>
     <t>Person(en)</t>
+  </si>
+  <si>
+    <t>MO. / 07.10.2019</t>
   </si>
 </sst>
 </file>
@@ -353,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,23 +438,29 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,10 +1022,10 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1041,10 +1051,10 @@
     </row>
     <row r="4" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
@@ -1054,10 +1064,10 @@
     </row>
     <row r="5" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="21">
         <v>100</v>
       </c>
@@ -1067,10 +1077,10 @@
     </row>
     <row r="6" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="23">
         <v>100</v>
       </c>
@@ -1082,10 +1092,10 @@
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="21">
         <v>50</v>
       </c>
@@ -1095,10 +1105,10 @@
     </row>
     <row r="8" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="23">
         <v>70</v>
       </c>
@@ -1108,10 +1118,10 @@
     </row>
     <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="23">
         <v>15</v>
       </c>
@@ -1121,10 +1131,10 @@
     </row>
     <row r="10" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="23">
         <v>20</v>
       </c>
@@ -1147,103 +1157,103 @@
     </row>
     <row r="12" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B18" s="16"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B19" s="16"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="16"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B26" s="16"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B27" s="16"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B29" s="16"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B30" s="16"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B31" s="16"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.45">
       <c r="B32" s="16"/>
@@ -1265,36 +1275,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1324,10 +1334,10 @@
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1342,10 +1352,10 @@
       <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1416,9 +1426,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -1557,10 +1567,10 @@
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1575,10 +1585,10 @@
       <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
@@ -1828,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC4F49-D022-4F6F-A786-75A55A7C7901}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1848,10 +1858,10 @@
       <c r="B2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
@@ -1864,12 +1874,12 @@
     </row>
     <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="29" t="s">
         <v>29</v>
       </c>
@@ -2091,6 +2101,294 @@
         <v>5</v>
       </c>
       <c r="D24" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA03C1-25CA-42A6-9B2D-CB7F8E650248}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="31">
+        <v>50</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="31">
+        <v>30</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="31">
+        <v>15</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="31">
+        <v>30</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31">
+        <v>50</v>
+      </c>
+      <c r="E12" s="31">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>11</v>
       </c>
     </row>

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA42754-B16E-484C-BE08-7B0D13DBB7F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5DDB0-4E41-499B-B99F-DD947C65746F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="2" activeTab="5" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="7" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
     <sheet name="Übersicht erledigter Aufgaben" sheetId="2" r:id="rId2"/>
-    <sheet name="MO 30.09.2019 - SYP1" sheetId="1" r:id="rId3"/>
-    <sheet name="MO 03.10.2019 - WINF" sheetId="6" r:id="rId4"/>
-    <sheet name="MO 07.10.2019 - SYP1" sheetId="8" r:id="rId5"/>
-    <sheet name="MO 14.10.2019 - SYP1" sheetId="9" r:id="rId6"/>
+    <sheet name="30.09." sheetId="1" r:id="rId3"/>
+    <sheet name="03.10." sheetId="6" r:id="rId4"/>
+    <sheet name="07.10." sheetId="8" r:id="rId5"/>
+    <sheet name="14.10." sheetId="9" r:id="rId6"/>
+    <sheet name="15.10." sheetId="11" r:id="rId7"/>
+    <sheet name="21.10." sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="79">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -167,9 +169,6 @@
     <t>Erstellen von UserStorys &amp; Backlog</t>
   </si>
   <si>
-    <t>MO. / 03.10.2019</t>
-  </si>
-  <si>
     <t>SYP1 / 100 min</t>
   </si>
   <si>
@@ -216,6 +215,66 @@
   </si>
   <si>
     <t>MO. / 07.10.2019</t>
+  </si>
+  <si>
+    <t>MO. / 14.10.2019</t>
+  </si>
+  <si>
+    <t>WINF / 100min</t>
+  </si>
+  <si>
+    <t>Erstellung von User Stories</t>
+  </si>
+  <si>
+    <t>DRA;GRF</t>
+  </si>
+  <si>
+    <t>DI. / 15.10.2019</t>
+  </si>
+  <si>
+    <t>Mo. / 30.09.2019</t>
+  </si>
+  <si>
+    <t>Di. / 15.10.2019</t>
+  </si>
+  <si>
+    <t>Aufarbeitung der Taks siehe Review</t>
+  </si>
+  <si>
+    <t>Aufarbeitung Tasks siehe Review</t>
+  </si>
+  <si>
+    <t>User Stories &amp; Review</t>
+  </si>
+  <si>
+    <t>Mo. / 21.10.2019</t>
+  </si>
+  <si>
+    <t>Erstellung BLL JavaFx</t>
+  </si>
+  <si>
+    <t>Erstellung Datenbankskript</t>
+  </si>
+  <si>
+    <t>Erstellung Datenmodelle Webservice</t>
+  </si>
+  <si>
+    <t>Erstellung Datenbankskripts</t>
+  </si>
+  <si>
+    <t>Erstellung Datenbank Inserts</t>
+  </si>
+  <si>
+    <t>Datenmodellierung WS &amp; FX &amp; Android</t>
+  </si>
+  <si>
+    <t>Erstellung BLL Android</t>
+  </si>
+  <si>
+    <t>Beschreiben von User Stories</t>
+  </si>
+  <si>
+    <t>Di. / 03.10.2019</t>
   </si>
 </sst>
 </file>
@@ -357,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,9 +488,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,28 +500,37 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96CC26E-12DC-4691-AA4E-E307C7EFF847}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -830,10 +895,10 @@
       <c r="D3" s="26">
         <v>100</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="41" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="25" t="s">
@@ -861,36 +926,82 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="26">
+        <v>100</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="26">
+        <v>100</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="26">
+        <v>50</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="26">
+        <v>100</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25"/>
@@ -1003,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AB570-BFC1-4B04-BC88-2752E218D317}">
-  <dimension ref="A2:F37"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1018,14 +1129,14 @@
     <col min="6" max="6" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1033,15 +1144,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="17">
         <v>100</v>
       </c>
@@ -1049,12 +1160,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
@@ -1062,12 +1173,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="21">
         <v>100</v>
       </c>
@@ -1075,12 +1186,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="23">
         <v>100</v>
       </c>
@@ -1088,14 +1199,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="21">
         <v>50</v>
       </c>
@@ -1103,12 +1214,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="23">
         <v>70</v>
       </c>
@@ -1116,12 +1227,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="23">
         <v>15</v>
       </c>
@@ -1129,12 +1240,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="23">
         <v>20</v>
       </c>
@@ -1142,12 +1253,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="17">
         <v>80</v>
       </c>
@@ -1155,107 +1266,172 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="21">
+        <v>70</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="23">
+        <v>50</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="17">
+        <v>30</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="17">
+        <v>15</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C16" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="19">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="B18" s="16"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="21">
+        <v>30</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="B18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="23">
+        <v>140</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B19" s="16"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="16"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-    </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-    </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B26" s="16"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-    </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B27" s="16"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-    </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B29" s="16"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B30" s="16"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-    </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B31" s="16"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.45">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B32" s="16"/>
     </row>
     <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.45">
@@ -1275,36 +1451,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1334,10 +1510,10 @@
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1352,10 +1528,10 @@
       <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1363,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1426,9 +1602,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -1452,7 +1628,7 @@
     </row>
     <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="12">
         <v>50</v>
@@ -1548,7 +1724,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1567,10 +1743,10 @@
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1583,12 +1759,12 @@
     </row>
     <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
@@ -1596,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1839,7 +2015,7 @@
   <dimension ref="B2:G26"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1855,66 +2031,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="29">
+        <v>47</v>
+      </c>
+      <c r="C6" s="28">
         <v>50</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="13"/>
@@ -1922,15 +2098,15 @@
     </row>
     <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="29">
+        <v>48</v>
+      </c>
+      <c r="C7" s="28">
         <v>30</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="13"/>
@@ -1938,67 +2114,67 @@
     </row>
     <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="28">
+        <v>15</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="29">
-        <v>15</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="28">
+        <v>30</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="29">
-        <v>30</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>50</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>100</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -2009,98 +2185,98 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
     <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
     <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
     <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2134,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA03C1-25CA-42A6-9B2D-CB7F8E650248}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2151,64 +2327,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="31">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30">
         <v>50</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="13"/>
@@ -2216,15 +2394,15 @@
     </row>
     <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="31">
+        <v>48</v>
+      </c>
+      <c r="C7" s="30">
         <v>30</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="13"/>
@@ -2232,67 +2410,67 @@
     </row>
     <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="30">
+        <v>15</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="31">
-        <v>15</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>51</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="30">
+        <v>30</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="31">
-        <v>30</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>50</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>100</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -2303,92 +2481,724 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
     <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
     <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="13"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
     <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86564D31-0E89-489A-9972-AADF6B79EE54}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>60</v>
+      </c>
+      <c r="E10" s="32">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="32">
+        <v>50</v>
+      </c>
+      <c r="D14" s="32">
+        <v>20</v>
+      </c>
+      <c r="E14" s="32">
+        <v>70</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>50</v>
+      </c>
+      <c r="E15" s="32">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>30</v>
+      </c>
+      <c r="E16" s="32">
+        <v>30</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>15</v>
+      </c>
+      <c r="E17" s="32">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
+        <v>30</v>
+      </c>
+      <c r="E18" s="32">
+        <v>30</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654FEFB0-94AD-455F-A9BF-0EDC413A1355}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="32">
+        <v>100</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>100</v>
+      </c>
+      <c r="E10" s="32">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="32">
+        <v>150</v>
+      </c>
+      <c r="D11" s="32">
+        <v>100</v>
+      </c>
+      <c r="E11" s="32">
+        <v>100</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <v>100</v>
+      </c>
+      <c r="E12" s="32">
+        <v>150</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <v>100</v>
+      </c>
+      <c r="E13" s="32">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="32">
+        <v>60</v>
+      </c>
+      <c r="D16" s="32">
+        <v>80</v>
+      </c>
+      <c r="E16" s="32">
+        <v>140</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>11</v>
       </c>
     </row>

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5DDB0-4E41-499B-B99F-DD947C65746F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDCF922-69B0-41DF-AFCF-6F6E4752C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="7" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="8" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="14.10." sheetId="9" r:id="rId6"/>
     <sheet name="15.10." sheetId="11" r:id="rId7"/>
     <sheet name="21.10." sheetId="13" r:id="rId8"/>
+    <sheet name="22.10." sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="93">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -275,6 +276,48 @@
   </si>
   <si>
     <t>Di. / 03.10.2019</t>
+  </si>
+  <si>
+    <t>Di. / 22.10.2019</t>
+  </si>
+  <si>
+    <t>Implementierung WS &amp; BLL</t>
+  </si>
+  <si>
+    <t>Erstellung Login GUI</t>
+  </si>
+  <si>
+    <t>Erstellung Basic REST</t>
+  </si>
+  <si>
+    <t>Erstellung Stuetzpunkt REST</t>
+  </si>
+  <si>
+    <t>Erstellung Basic&amp;Stuetzpunkt parser</t>
+  </si>
+  <si>
+    <t>Erstellung default handlers</t>
+  </si>
+  <si>
+    <t>Erstellung security w/o DB Check</t>
+  </si>
+  <si>
+    <t>Erstellung BLL JavaFX</t>
+  </si>
+  <si>
+    <t>Erstellung Stuetzpunkt Advanced REST</t>
+  </si>
+  <si>
+    <t>Beschreibung von User Stories</t>
+  </si>
+  <si>
+    <t>Implementierung Maps Android</t>
+  </si>
+  <si>
+    <t>Erstellung Admin-GUI</t>
+  </si>
+  <si>
+    <t>Erstellung Stuetzpunktverwaltung JavaFx</t>
   </si>
 </sst>
 </file>
@@ -416,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,24 +549,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,6 +556,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +899,7 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -895,10 +944,10 @@
       <c r="D3" s="26">
         <v>100</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="35" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="25" t="s">
@@ -1005,11 +1054,21 @@
     </row>
     <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="26">
+        <v>100</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="25"/>
@@ -1116,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AB570-BFC1-4B04-BC88-2752E218D317}">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1133,10 +1192,10 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,10 +1208,10 @@
       <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="17">
         <v>100</v>
       </c>
@@ -1162,10 +1221,10 @@
     </row>
     <row r="4" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
@@ -1175,10 +1234,10 @@
     </row>
     <row r="5" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="21">
         <v>100</v>
       </c>
@@ -1188,10 +1247,10 @@
     </row>
     <row r="6" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16"/>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="23">
         <v>100</v>
       </c>
@@ -1203,10 +1262,10 @@
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="21">
         <v>50</v>
       </c>
@@ -1216,10 +1275,10 @@
     </row>
     <row r="8" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="23">
         <v>70</v>
       </c>
@@ -1229,10 +1288,10 @@
     </row>
     <row r="9" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="23">
         <v>15</v>
       </c>
@@ -1242,10 +1301,10 @@
     </row>
     <row r="10" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="23">
         <v>20</v>
       </c>
@@ -1255,10 +1314,10 @@
     </row>
     <row r="11" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="17">
         <v>80</v>
       </c>
@@ -1270,10 +1329,10 @@
       <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="21">
         <v>70</v>
       </c>
@@ -1284,10 +1343,10 @@
     </row>
     <row r="13" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="23">
         <v>50</v>
       </c>
@@ -1298,10 +1357,10 @@
     </row>
     <row r="14" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="17">
         <v>30</v>
       </c>
@@ -1312,10 +1371,10 @@
     </row>
     <row r="15" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="17">
         <v>15</v>
       </c>
@@ -1326,10 +1385,10 @@
     </row>
     <row r="16" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="19">
         <v>30</v>
       </c>
@@ -1338,12 +1397,12 @@
       </c>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="21">
         <v>30</v>
       </c>
@@ -1351,14 +1410,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="23">
         <v>140</v>
       </c>
@@ -1366,72 +1425,156 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.45">
-      <c r="B19" s="16"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="23">
+        <v>40</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="16"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C20" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="21">
+        <v>110</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C21" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="23">
+        <v>270</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C22" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="23">
+        <v>50</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C23" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="23">
+        <v>300</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C24" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="23">
+        <v>20</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C25" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="23">
+        <v>20</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="16"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C26" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="23">
+        <v>130</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="16"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C27" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="17">
+        <v>200</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C28" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="21">
+        <v>200</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.45">
       <c r="B29" s="16"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.45">
       <c r="B30" s="16"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.45">
       <c r="B31" s="16"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.45">
       <c r="B32" s="16"/>
     </row>
     <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.45">
@@ -1461,26 +1604,26 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1510,10 +1653,10 @@
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1528,10 +1671,10 @@
       <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1602,9 +1745,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -1743,10 +1886,10 @@
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1761,10 +1904,10 @@
       <c r="B3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
@@ -2034,10 +2177,10 @@
       <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
@@ -2052,10 +2195,10 @@
       <c r="B3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
@@ -2330,10 +2473,10 @@
       <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
@@ -2348,10 +2491,10 @@
       <c r="B3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="30" t="s">
         <v>29</v>
       </c>
@@ -2620,10 +2763,10 @@
       <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
@@ -2638,10 +2781,10 @@
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="32" t="s">
         <v>29</v>
       </c>
@@ -2918,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654FEFB0-94AD-455F-A9BF-0EDC413A1355}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2938,10 +3081,10 @@
       <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
@@ -2956,10 +3099,10 @@
       <c r="B3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="32" t="s">
         <v>29</v>
       </c>
@@ -3217,6 +3360,512 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D335EDD7-9A70-4917-918F-B8FBDAFF8061}">
+  <dimension ref="B2:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34">
+        <v>100</v>
+      </c>
+      <c r="E10" s="34">
+        <v>200</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>100</v>
+      </c>
+      <c r="E11" s="34">
+        <v>300</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <v>100</v>
+      </c>
+      <c r="E12" s="34">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="34">
+        <v>400</v>
+      </c>
+      <c r="D13" s="34">
+        <v>100</v>
+      </c>
+      <c r="E13" s="34">
+        <v>300</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="34">
+        <v>100</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34">
+        <v>150</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
+        <v>40</v>
+      </c>
+      <c r="E18" s="34">
+        <v>40</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="34">
+        <v>100</v>
+      </c>
+      <c r="D19" s="34">
+        <v>10</v>
+      </c>
+      <c r="E19" s="34">
+        <v>110</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="34">
+        <v>250</v>
+      </c>
+      <c r="D20" s="34">
+        <v>20</v>
+      </c>
+      <c r="E20" s="34">
+        <v>270</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="34">
+        <v>0</v>
+      </c>
+      <c r="D21" s="34">
+        <v>50</v>
+      </c>
+      <c r="E21" s="34">
+        <v>50</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0</v>
+      </c>
+      <c r="D22" s="34">
+        <v>300</v>
+      </c>
+      <c r="E22" s="34">
+        <v>300</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="34">
+        <v>0</v>
+      </c>
+      <c r="D23" s="34">
+        <v>20</v>
+      </c>
+      <c r="E23" s="34">
+        <v>20</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34">
+        <v>20</v>
+      </c>
+      <c r="E24" s="34">
+        <v>20</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="34">
+        <v>0</v>
+      </c>
+      <c r="D25" s="34">
+        <v>130</v>
+      </c>
+      <c r="E25" s="34">
+        <v>130</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="34">
+        <v>100</v>
+      </c>
+      <c r="D26" s="34">
+        <v>100</v>
+      </c>
+      <c r="E26" s="34">
+        <v>200</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="34">
+        <v>200</v>
+      </c>
+      <c r="E27" s="34">
+        <v>200</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="30" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="13"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="34" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDCF922-69B0-41DF-AFCF-6F6E4752C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A874D81-51A6-4F51-9554-6BA58229CCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="8" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,26 @@
     <sheet name="15.10." sheetId="11" r:id="rId7"/>
     <sheet name="21.10." sheetId="13" r:id="rId8"/>
     <sheet name="22.10." sheetId="15" r:id="rId9"/>
+    <sheet name="28.10" sheetId="18" r:id="rId10"/>
+    <sheet name="29.10" sheetId="19" r:id="rId11"/>
+    <sheet name="04.11" sheetId="21" r:id="rId12"/>
+    <sheet name="05.11" sheetId="22" r:id="rId13"/>
+    <sheet name="11.11" sheetId="23" r:id="rId14"/>
+    <sheet name="12.11" sheetId="24" r:id="rId15"/>
+    <sheet name="18.11" sheetId="25" r:id="rId16"/>
+    <sheet name="19.11" sheetId="26" r:id="rId17"/>
+    <sheet name="25.11" sheetId="27" r:id="rId18"/>
+    <sheet name="26.11" sheetId="28" r:id="rId19"/>
+    <sheet name="02.12" sheetId="29" r:id="rId20"/>
+    <sheet name="03.12" sheetId="30" r:id="rId21"/>
+    <sheet name="09.12" sheetId="33" r:id="rId22"/>
+    <sheet name="10.12" sheetId="34" r:id="rId23"/>
+    <sheet name="16.12" sheetId="36" r:id="rId24"/>
+    <sheet name="17.12" sheetId="37" r:id="rId25"/>
+    <sheet name="07.01" sheetId="38" r:id="rId26"/>
+    <sheet name="13.01" sheetId="39" r:id="rId27"/>
+    <sheet name="14.01" sheetId="40" r:id="rId28"/>
+    <sheet name="20.01" sheetId="41" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +51,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="219">
   <si>
     <t>In Bearbeitung</t>
   </si>
@@ -318,6 +340,384 @@
   </si>
   <si>
     <t>Erstellung Stuetzpunktverwaltung JavaFx</t>
+  </si>
+  <si>
+    <t>Mo. / 28.10.2019</t>
+  </si>
+  <si>
+    <t>500 min</t>
+  </si>
+  <si>
+    <t>100 min</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>200 min</t>
+  </si>
+  <si>
+    <t>150 min</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>Di. / 29.10.2019</t>
+  </si>
+  <si>
+    <t>90 min</t>
+  </si>
+  <si>
+    <t>190 min</t>
+  </si>
+  <si>
+    <t>600 min</t>
+  </si>
+  <si>
+    <t>1000 min</t>
+  </si>
+  <si>
+    <t>Mo. / 04.11.2019</t>
+  </si>
+  <si>
+    <t>300 min</t>
+  </si>
+  <si>
+    <t>700 min</t>
+  </si>
+  <si>
+    <t>Logodesign "png"</t>
+  </si>
+  <si>
+    <t>niedrig</t>
+  </si>
+  <si>
+    <t>GUI-Login implementierung</t>
+  </si>
+  <si>
+    <t>GUI-Login Design</t>
+  </si>
+  <si>
+    <t>GUI-Stuetzpunkte Design</t>
+  </si>
+  <si>
+    <t>GUI-Stuetzpunkte&gt;Mitglieder Design</t>
+  </si>
+  <si>
+    <t>GUI-Stuetzpunkte&gt;Fahrzeuge Design</t>
+  </si>
+  <si>
+    <t>Testen aller base.js URLS</t>
+  </si>
+  <si>
+    <t>Testen aller stuetzpunkte.js URLS</t>
+  </si>
+  <si>
+    <t>Besprechung nächster UC</t>
+  </si>
+  <si>
+    <t>siehe "zu Erledigen"</t>
+  </si>
+  <si>
+    <t>Modularisierung von Log4J Logging</t>
+  </si>
+  <si>
+    <t>Modularisierte Eingabeüberprüfung implementieren</t>
+  </si>
+  <si>
+    <t>Überarbeitung Code-Doku</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Anbindung DB an Phone+implementierung DAL</t>
+  </si>
+  <si>
+    <t>Implementierung Sybole auf Map(Testwerte)</t>
+  </si>
+  <si>
+    <t>Di. / 05.11.2019</t>
+  </si>
+  <si>
+    <t>Implementierung WS &amp; BLL &amp; GUI Design</t>
+  </si>
+  <si>
+    <t>400 min</t>
+  </si>
+  <si>
+    <t>800 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>Mo. / 11.11.2019</t>
+  </si>
+  <si>
+    <t>SYP / 100min</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>65 min</t>
+  </si>
+  <si>
+    <t>Di. / 12.11.2019</t>
+  </si>
+  <si>
+    <t>70 min</t>
+  </si>
+  <si>
+    <t>270 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>140 min</t>
+  </si>
+  <si>
+    <t>900 min</t>
+  </si>
+  <si>
+    <t>Erweiterung von Stutzpunktverwaltung JAVAFX UseCase</t>
+  </si>
+  <si>
+    <t>UC wurde um UPDATE/DELETE erweitert</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>Di. / 19.11.2019</t>
+  </si>
+  <si>
+    <t>Mo. / 18.11.2019</t>
+  </si>
+  <si>
+    <t>Mo. / 25.11.2019</t>
+  </si>
+  <si>
+    <t>1100 min</t>
+  </si>
+  <si>
+    <t>1200 min</t>
+  </si>
+  <si>
+    <t>Di. / 26.11.2019</t>
+  </si>
+  <si>
+    <t>Überarbeitung Doku</t>
+  </si>
+  <si>
+    <t>230 min</t>
+  </si>
+  <si>
+    <t>Mo. / 02.12.2019</t>
+  </si>
+  <si>
+    <t>1300 min</t>
+  </si>
+  <si>
+    <t>Di. / 03.12.2019</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t>340 min</t>
+  </si>
+  <si>
+    <t>130 min</t>
+  </si>
+  <si>
+    <t>Mo. / 09.12.2019</t>
+  </si>
+  <si>
+    <t>240 min</t>
+  </si>
+  <si>
+    <t>1400 min</t>
+  </si>
+  <si>
+    <t>Di. / 10.12.2019</t>
+  </si>
+  <si>
+    <t>1650 min</t>
+  </si>
+  <si>
+    <t>1600 min</t>
+  </si>
+  <si>
+    <t>160 min</t>
+  </si>
+  <si>
+    <t>260 min</t>
+  </si>
+  <si>
+    <t>Neue Use Cases definieren</t>
+  </si>
+  <si>
+    <t>GUI-Logout implementierung</t>
+  </si>
+  <si>
+    <t>GUI-Logout Design</t>
+  </si>
+  <si>
+    <t>GUI-Edit Profile implementierung</t>
+  </si>
+  <si>
+    <t>JavaFx Google Maps anbindung</t>
+  </si>
+  <si>
+    <t>GUI-Edit Profile Design</t>
+  </si>
+  <si>
+    <t>Anzeigen aller DB Daten auf der MAP</t>
+  </si>
+  <si>
+    <t>Icons für DB Daten</t>
+  </si>
+  <si>
+    <t>Implementierung Response Schachtelung</t>
+  </si>
+  <si>
+    <t>Erstellung EDIT/DELETE Stuetzpunktverwaltung</t>
+  </si>
+  <si>
+    <t>Mo. / 16.12.2019</t>
+  </si>
+  <si>
+    <t>Di. / 17.12.2019</t>
+  </si>
+  <si>
+    <t>120 min</t>
+  </si>
+  <si>
+    <t>Di. / 07.01.2020</t>
+  </si>
+  <si>
+    <t>Mo. / 13.01.2020</t>
+  </si>
+  <si>
+    <t>450 min</t>
+  </si>
+  <si>
+    <t>220 min</t>
+  </si>
+  <si>
+    <t>Di. / 14.01.2020</t>
+  </si>
+  <si>
+    <t>Optimierung App für TDOT</t>
+  </si>
+  <si>
+    <t>Implementierung Response Builder</t>
+  </si>
+  <si>
+    <t>MO. / 21.10.2019</t>
+  </si>
+  <si>
+    <t>DI. / 22.10.2019</t>
+  </si>
+  <si>
+    <t>MO. / 28.10.2019</t>
+  </si>
+  <si>
+    <t>DI. / 29.10.2019</t>
+  </si>
+  <si>
+    <t>MO. / 04.11.2019</t>
+  </si>
+  <si>
+    <t>DI. / 05.11.2019</t>
+  </si>
+  <si>
+    <t>MO. / 11.11.2019</t>
+  </si>
+  <si>
+    <t>DI. / 12.11.2019</t>
+  </si>
+  <si>
+    <t>MO. / 18.11.2019</t>
+  </si>
+  <si>
+    <t>DI. / 19.11.2019</t>
+  </si>
+  <si>
+    <t>MO. / 25.11.2019</t>
+  </si>
+  <si>
+    <t>DI. / 26.11.2019</t>
+  </si>
+  <si>
+    <t>MO. / 02.12.2019</t>
+  </si>
+  <si>
+    <t>DI. / 03.12.2019</t>
+  </si>
+  <si>
+    <t>MO. / 09.12.2019</t>
+  </si>
+  <si>
+    <t>DI. / 10.12.2019</t>
+  </si>
+  <si>
+    <t>MO. / 16.12.2019</t>
+  </si>
+  <si>
+    <t>DI. / 17.12.2019</t>
+  </si>
+  <si>
+    <t>DI. / 07.01.2020</t>
+  </si>
+  <si>
+    <t>MO. / 13.01.2020</t>
+  </si>
+  <si>
+    <t>DI. / 14.01.2020</t>
+  </si>
+  <si>
+    <t>Mo. / 20.01.2020</t>
+  </si>
+  <si>
+    <t>MO. / 20.01.2020</t>
+  </si>
+  <si>
+    <t>Logdesign "png"</t>
+  </si>
+  <si>
+    <t>110 min</t>
+  </si>
+  <si>
+    <t>Assek</t>
+  </si>
+  <si>
+    <t>Drabosening</t>
+  </si>
+  <si>
+    <t>Graf</t>
+  </si>
+  <si>
+    <t>Thaler</t>
+  </si>
+  <si>
+    <t>Iteration 1 (bis 20. Nov)</t>
+  </si>
+  <si>
+    <t>Iteration 3 (bis ???)</t>
+  </si>
+  <si>
+    <t>Zeit in dieser Iteration</t>
+  </si>
+  <si>
+    <t>Gesamtsumme (komplettes Projekt) - Stand (20.01)</t>
+  </si>
+  <si>
+    <t>Iteration 2 (bis ???) - Stand (20.01)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,19 +958,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -581,6 +969,36 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96CC26E-12DC-4691-AA4E-E307C7EFF847}">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -961,8 +1379,8 @@
       <c r="C4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="26">
-        <v>50</v>
+      <c r="D4" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>36</v>
@@ -1021,8 +1439,8 @@
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="26">
-        <v>50</v>
+      <c r="D7" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>66</v>
@@ -1035,7 +1453,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="25"/>
+      <c r="B8" s="25" t="s">
+        <v>185</v>
+      </c>
       <c r="C8" s="25" t="s">
         <v>32</v>
       </c>
@@ -1053,7 +1473,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="25"/>
+      <c r="B9" s="25" t="s">
+        <v>186</v>
+      </c>
       <c r="C9" s="25" t="s">
         <v>35</v>
       </c>
@@ -1071,112 +1493,4229 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="26">
+        <v>100</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="26">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="26">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="26">
+        <v>100</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="26">
+        <v>100</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="26">
+        <v>100</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="26">
+        <v>100</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="B17" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="26">
+        <v>100</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="26">
+        <v>100</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="26">
+        <v>100</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="26">
+        <v>100</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="26">
+        <v>100</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="26">
+        <v>100</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="26">
+        <v>100</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="26">
+        <v>100</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="26">
+        <v>100</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="26">
+        <v>100</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="26">
+        <v>100</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="26">
+        <v>100</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="26">
+        <v>100</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2FF2A2-AC1D-4CAD-A90A-6631B60EF778}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="39">
+        <v>100</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="39">
+        <v>100</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39">
+        <v>150</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ED92FC-555E-47E2-86E7-080D372681A6}">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80D060-D28F-493E-AE02-530349E2B1D1}">
+  <dimension ref="B2:G34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="13"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="32" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB57A47-72A2-4D36-8B92-C74FE4C3E230}">
+  <dimension ref="B2:G32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="30" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC56780-7C29-449D-AFED-0678E1B25D1B}">
+  <dimension ref="B2:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="29" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910F2F56-FDED-4499-955F-EBD3A1F60C26}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0524945-84CD-4FF3-AE46-F3FA9CE0ADD8}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B3556-AC72-4909-9AEF-4ACA821173C3}">
+  <dimension ref="B2:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="39">
+        <v>800</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="27" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50AD5DB-5FF6-40AA-BF81-1AF310ED9DB7}">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC629528-8ABA-4039-9C6B-3A252D9C608A}">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AB570-BFC1-4B04-BC88-2752E218D317}">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1186,99 +5725,135 @@
     <col min="4" max="4" width="55" customWidth="1"/>
     <col min="5" max="5" width="29.1328125" customWidth="1"/>
     <col min="6" max="6" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" customWidth="1"/>
+    <col min="10" max="10" width="34.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="17">
         <v>100</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I4" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="17">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="21">
         <v>100</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I5" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="23">
         <v>100</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I6" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="21">
         <v>50</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I7" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="41">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="23">
         <v>70</v>
       </c>
@@ -1286,53 +5861,70 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="23">
         <v>15</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="23">
         <v>20</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="17">
         <v>80</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="17">
+        <f>J25-J4</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="21">
         <v>70</v>
       </c>
@@ -1340,13 +5932,20 @@
         <v>27</v>
       </c>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="19">
+        <f>J26-J5</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="23">
         <v>50</v>
       </c>
@@ -1354,13 +5953,20 @@
         <v>25</v>
       </c>
       <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="21">
+        <f>J27-J6</f>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="17">
         <v>30</v>
       </c>
@@ -1368,13 +5974,20 @@
         <v>26</v>
       </c>
       <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="41">
+        <f>J28-J7</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="17">
         <v>15</v>
       </c>
@@ -1383,12 +5996,12 @@
       </c>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="19">
         <v>30</v>
       </c>
@@ -1396,82 +6009,108 @@
         <v>28</v>
       </c>
       <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="21">
         <v>30</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="23">
         <v>140</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="23">
         <v>40</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="16"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="21">
         <v>110</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="23">
         <v>270</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="23">
         <v>50</v>
       </c>
@@ -1479,64 +6118,86 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="23">
         <v>300</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="23">
         <v>20</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="23">
         <v>20</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="16"/>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="23">
         <v>130</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="16"/>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="17">
         <v>200</v>
       </c>
@@ -1544,56 +6205,356 @@
         <v>26</v>
       </c>
       <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="21">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="21">
         <v>200</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.45">
-      <c r="B29" s="16"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.45">
-      <c r="B30" s="16"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.45">
+      <c r="I28" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="41">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="16"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.45">
-      <c r="B32" s="16"/>
-    </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B33" s="16"/>
-    </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B34" s="16"/>
-    </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B35" s="16"/>
-    </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="C31" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="19">
+        <v>800</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B37" s="16"/>
+      <c r="C36" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="23">
+        <v>110</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13"/>
+      <c r="C37" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="21">
+        <v>200</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13"/>
+      <c r="C39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="21">
+        <v>150</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="54">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -1611,21 +6572,3333 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E8C211-30B7-48E5-9453-7E96B853FB7D}">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED104812-250B-46D5-ACF8-4DFF4D44AED1}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CC1C26-6B15-4F25-BDCA-C5F0F20EFC0D}">
+  <dimension ref="B2:G22"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="39">
+        <v>20</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26AF94-AC14-4DC3-B60B-BABA646FFD94}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1F2F2-0CCF-4B6C-BB90-2434BB4EE0D9}">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E081607C-A906-48DE-B7C4-D185A58C994A}">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C038C7-EBA8-4BE3-92EF-FDF2D1A5A7DE}">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B22AAB3-F6B4-47DB-A9CC-A01F2F506CAF}">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4310F79F-815D-4B75-8ACC-C9D3A6B11E09}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89423E45-3D74-44EB-A174-4107FF23563A}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1653,10 +9926,10 @@
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1671,10 +9944,10 @@
       <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1745,9 +10018,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -1886,10 +10159,10 @@
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1904,10 +10177,10 @@
       <c r="B3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
@@ -2177,10 +10450,10 @@
       <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
@@ -2195,10 +10468,10 @@
       <c r="B3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
@@ -2473,10 +10746,10 @@
       <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
@@ -2491,10 +10764,10 @@
       <c r="B3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="30" t="s">
         <v>29</v>
       </c>
@@ -2763,10 +11036,10 @@
       <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
@@ -2781,10 +11054,10 @@
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="32" t="s">
         <v>29</v>
       </c>
@@ -3081,10 +11354,10 @@
       <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
@@ -3099,10 +11372,10 @@
       <c r="B3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="32" t="s">
         <v>29</v>
       </c>
@@ -3375,8 +11648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D335EDD7-9A70-4917-918F-B8FBDAFF8061}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F28"/>
+    <sheetView zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3395,10 +11668,10 @@
       <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
@@ -3413,10 +11686,10 @@
       <c r="B3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="34" t="s">
         <v>29</v>
       </c>

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A874D81-51A6-4F51-9554-6BA58229CCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F656FD84-7106-4763-B308-8DA328461E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
@@ -979,16 +979,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96CC26E-12DC-4691-AA4E-E307C7EFF847}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5712,10 +5712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AB570-BFC1-4B04-BC88-2752E218D317}">
-  <dimension ref="A2:J51"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5753,10 +5753,10 @@
       <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="17">
         <v>100</v>
       </c>
@@ -5772,10 +5772,10 @@
     </row>
     <row r="4" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="5" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="21">
         <v>100</v>
       </c>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="6" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="23">
         <v>100</v>
       </c>
@@ -5831,10 +5831,10 @@
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="21">
         <v>50</v>
       </c>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="8" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="23">
         <v>70</v>
       </c>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="9" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="23">
         <v>15</v>
       </c>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="10" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="23">
         <v>20</v>
       </c>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="11" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="17">
         <v>80</v>
       </c>
@@ -5921,10 +5921,10 @@
       <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="21">
         <v>70</v>
       </c>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="13" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="23">
         <v>50</v>
       </c>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="14" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="17">
         <v>30</v>
       </c>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="15" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="17">
         <v>15</v>
       </c>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="16" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="19">
         <v>30</v>
       </c>
@@ -6014,12 +6014,12 @@
       </c>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="21">
         <v>30</v>
       </c>
@@ -6033,14 +6033,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="23">
         <v>140</v>
       </c>
@@ -6052,14 +6052,14 @@
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="23">
         <v>40</v>
       </c>
@@ -6071,12 +6071,12 @@
       </c>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="16"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="21">
         <v>110</v>
       </c>
@@ -6088,12 +6088,12 @@
       </c>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="23">
         <v>270</v>
       </c>
@@ -6105,12 +6105,12 @@
       </c>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="23">
         <v>50</v>
       </c>
@@ -6118,12 +6118,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="23">
         <v>300</v>
       </c>
@@ -6135,12 +6135,12 @@
       </c>
       <c r="J23" s="42"/>
     </row>
-    <row r="24" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="23">
         <v>20</v>
       </c>
@@ -6154,12 +6154,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="23">
         <v>20</v>
       </c>
@@ -6172,13 +6172,16 @@
       <c r="J25" s="17">
         <v>2075</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="16"/>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="23">
         <v>130</v>
       </c>
@@ -6191,13 +6194,16 @@
       <c r="J26" s="19">
         <v>1720</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="16"/>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="17">
         <v>200</v>
       </c>
@@ -6211,13 +6217,16 @@
       <c r="J27" s="21">
         <v>2040</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="21">
         <v>200</v>
       </c>
@@ -6230,15 +6239,18 @@
       <c r="J28" s="41">
         <v>2610</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K28">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="21" t="s">
         <v>102</v>
       </c>
@@ -6246,14 +6258,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="23" t="s">
         <v>106</v>
       </c>
@@ -6261,12 +6273,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="16"/>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="19" t="s">
         <v>97</v>
       </c>
@@ -6274,14 +6286,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="21" t="s">
         <v>177</v>
       </c>
@@ -6293,10 +6305,10 @@
       <c r="B33" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="23" t="s">
         <v>133</v>
       </c>
@@ -6309,10 +6321,10 @@
       <c r="B34" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="23" t="s">
         <v>136</v>
       </c>
@@ -6324,10 +6336,10 @@
       <c r="B35" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="19">
         <v>800</v>
       </c>
@@ -6337,10 +6349,10 @@
     </row>
     <row r="36" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="16"/>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="23">
         <v>110</v>
       </c>
@@ -6350,10 +6362,10 @@
     </row>
     <row r="37" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="13"/>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="21">
         <v>200</v>
       </c>
@@ -6366,10 +6378,10 @@
       <c r="B38" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="23" t="s">
         <v>122</v>
       </c>
@@ -6379,10 +6391,10 @@
     </row>
     <row r="39" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="13"/>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="21" t="s">
         <v>99</v>
       </c>
@@ -6394,10 +6406,10 @@
       <c r="B40" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="23" t="s">
         <v>122</v>
       </c>
@@ -6409,10 +6421,10 @@
       <c r="B41" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="21">
         <v>150</v>
       </c>
@@ -6425,10 +6437,10 @@
       <c r="B42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="21" t="s">
         <v>97</v>
       </c>
@@ -6437,10 +6449,10 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="19" t="s">
         <v>155</v>
       </c>
@@ -6452,10 +6464,10 @@
       <c r="B44" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="17" t="s">
         <v>161</v>
       </c>
@@ -6464,10 +6476,10 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="43"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="21" t="s">
         <v>97</v>
       </c>
@@ -6476,10 +6488,10 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="44"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="23" t="s">
         <v>164</v>
       </c>
@@ -6488,10 +6500,10 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="19" t="s">
         <v>156</v>
       </c>
@@ -6503,10 +6515,10 @@
       <c r="B48" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="19" t="s">
         <v>177</v>
       </c>
@@ -6515,10 +6527,10 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="21" t="s">
         <v>98</v>
       </c>
@@ -6530,10 +6542,10 @@
       <c r="B50" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="21" t="s">
         <v>181</v>
       </c>
@@ -6542,10 +6554,10 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="44"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="23" t="s">
         <v>180</v>
       </c>
@@ -6555,44 +6567,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I16:J16"/>
@@ -6609,6 +6583,44 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9593,7 +9605,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/FVisual_Documentation/Projekttagebuch.xlsx
+++ b/FVisual_Documentation/Projekttagebuch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\syp_pos_dbi\FVisual\FVisual_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F656FD84-7106-4763-B308-8DA328461E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F656FD84-7106-4763-B308-8DA328461E4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5329FA7-53D1-444A-B9BD-6071B3CBFB75}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D18071EC-83FE-4EFA-8D7C-A4670CF93F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht Tag" sheetId="4" r:id="rId1"/>
@@ -51,9 +51,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -979,16 +977,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1002,7 +1000,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1018,7 +1016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1316,23 +1314,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96CC26E-12DC-4691-AA4E-E307C7EFF847}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
-    <col min="5" max="5" width="64.59765625" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="22.265625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="21.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="21.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>23</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>34</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>58</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>59</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>63</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>185</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>186</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>187</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>188</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
         <v>189</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>190</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>191</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>192</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>193</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
         <v>194</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>195</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>196</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
         <v>197</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>198</v>
       </c>
@@ -1732,7 +1730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>199</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>200</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>201</v>
       </c>
@@ -1792,7 +1790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>202</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>203</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>204</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>205</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
         <v>207</v>
       </c>
@@ -1905,19 +1903,19 @@
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>93</v>
       </c>
@@ -1953,7 +1951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -1975,7 +1973,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -1983,7 +1981,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>88</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
         <v>90</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>91</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
         <v>92</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
         <v>76</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -2111,7 +2109,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>1</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -2139,7 +2137,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>13</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -2158,7 +2156,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -2166,7 +2164,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2185,7 +2183,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2211,19 +2209,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -2241,7 +2239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>100</v>
       </c>
@@ -2259,7 +2257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -2273,7 +2271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -2281,7 +2279,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -2289,7 +2287,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>88</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>92</v>
       </c>
@@ -2369,7 +2367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
         <v>76</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -2397,7 +2395,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>1</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
         <v>91</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -2456,7 +2454,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -2464,7 +2462,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>12</v>
       </c>
@@ -2475,7 +2473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2483,7 +2481,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2509,19 +2507,19 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -2539,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
@@ -2557,7 +2555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -2571,7 +2569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>108</v>
       </c>
@@ -2587,7 +2585,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>110</v>
       </c>
@@ -2603,7 +2601,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>111</v>
       </c>
@@ -2619,7 +2617,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>112</v>
       </c>
@@ -2635,7 +2633,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>113</v>
       </c>
@@ -2651,7 +2649,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>114</v>
       </c>
@@ -2667,7 +2665,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>116</v>
       </c>
@@ -2683,7 +2681,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>115</v>
       </c>
@@ -2699,7 +2697,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>119</v>
       </c>
@@ -2715,7 +2713,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>120</v>
       </c>
@@ -2731,7 +2729,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>121</v>
       </c>
@@ -2747,7 +2745,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>124</v>
       </c>
@@ -2763,7 +2761,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>123</v>
       </c>
@@ -2779,7 +2777,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
         <v>90</v>
       </c>
@@ -2819,7 +2817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
         <v>92</v>
       </c>
@@ -2839,7 +2837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
         <v>88</v>
       </c>
@@ -2879,7 +2877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
         <v>76</v>
       </c>
@@ -2899,7 +2897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>117</v>
       </c>
@@ -2924,7 +2922,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -2932,7 +2930,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="32" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
         <v>12</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2951,7 +2949,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2977,19 +2975,19 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>125</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>110</v>
       </c>
@@ -3055,7 +3053,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>111</v>
       </c>
@@ -3071,7 +3069,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>112</v>
       </c>
@@ -3087,7 +3085,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>113</v>
       </c>
@@ -3103,7 +3101,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -3119,7 +3117,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>119</v>
       </c>
@@ -3135,7 +3133,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>120</v>
       </c>
@@ -3151,7 +3149,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>121</v>
       </c>
@@ -3167,7 +3165,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>124</v>
       </c>
@@ -3183,7 +3181,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>123</v>
       </c>
@@ -3199,7 +3197,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>90</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>116</v>
       </c>
@@ -3259,7 +3257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>115</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
         <v>92</v>
       </c>
@@ -3299,7 +3297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>1</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>108</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>13</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -3358,7 +3356,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
@@ -3366,7 +3364,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="30" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="38" t="s">
         <v>12</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3385,7 +3383,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3411,19 +3409,19 @@
       <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +3439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>130</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>110</v>
       </c>
@@ -3489,7 +3487,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>111</v>
       </c>
@@ -3505,7 +3503,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>112</v>
       </c>
@@ -3521,7 +3519,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>113</v>
       </c>
@@ -3537,7 +3535,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -3553,7 +3551,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>119</v>
       </c>
@@ -3569,7 +3567,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>120</v>
       </c>
@@ -3585,7 +3583,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>121</v>
       </c>
@@ -3601,7 +3599,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>124</v>
       </c>
@@ -3617,7 +3615,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>123</v>
       </c>
@@ -3633,7 +3631,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>90</v>
       </c>
@@ -3673,7 +3671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>116</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
         <v>92</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>1</v>
       </c>
@@ -3733,7 +3731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>115</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>13</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>140</v>
       </c>
@@ -3778,7 +3776,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -3786,7 +3784,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="29" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
         <v>12</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3805,7 +3803,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3832,19 +3830,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -3862,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>134</v>
       </c>
@@ -3880,7 +3878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>111</v>
       </c>
@@ -3910,7 +3908,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>112</v>
       </c>
@@ -3926,7 +3924,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>113</v>
       </c>
@@ -3942,7 +3940,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>114</v>
       </c>
@@ -3958,7 +3956,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>120</v>
       </c>
@@ -3974,7 +3972,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
@@ -3990,7 +3988,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>124</v>
       </c>
@@ -4006,7 +4004,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>123</v>
       </c>
@@ -4022,7 +4020,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>90</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>119</v>
       </c>
@@ -4082,7 +4080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>110</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>92</v>
       </c>
@@ -4122,7 +4120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>1</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>116</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -4181,7 +4179,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -4189,7 +4187,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>12</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4208,7 +4206,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4234,19 +4232,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -4264,7 +4262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>144</v>
       </c>
@@ -4282,7 +4280,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -4296,7 +4294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>111</v>
       </c>
@@ -4312,7 +4310,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>112</v>
       </c>
@@ -4328,7 +4326,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>113</v>
       </c>
@@ -4344,7 +4342,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>114</v>
       </c>
@@ -4360,7 +4358,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>120</v>
       </c>
@@ -4376,7 +4374,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
@@ -4392,7 +4390,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>124</v>
       </c>
@@ -4408,7 +4406,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>123</v>
       </c>
@@ -4424,7 +4422,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>90</v>
       </c>
@@ -4464,7 +4462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>119</v>
       </c>
@@ -4484,7 +4482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>110</v>
       </c>
@@ -4504,7 +4502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>92</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>1</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -4552,7 +4550,7 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -4571,7 +4569,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -4579,7 +4577,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>12</v>
       </c>
@@ -4590,7 +4588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4598,7 +4596,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4624,19 +4622,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -4654,7 +4652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>143</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>112</v>
       </c>
@@ -4702,7 +4700,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>113</v>
       </c>
@@ -4718,7 +4716,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>114</v>
       </c>
@@ -4734,7 +4732,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>123</v>
       </c>
@@ -4750,7 +4748,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -4758,7 +4756,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>92</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>120</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>121</v>
       </c>
@@ -4838,7 +4836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>111</v>
       </c>
@@ -4858,7 +4856,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>124</v>
       </c>
@@ -4878,7 +4876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +4896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>90</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>119</v>
       </c>
@@ -4938,7 +4936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>110</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>13</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -4977,7 +4975,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -4985,7 +4983,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="27" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>12</v>
       </c>
@@ -4996,7 +4994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -5004,7 +5002,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -5030,19 +5028,19 @@
       <selection activeCell="B17" sqref="B17:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -5060,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>145</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -5092,7 +5090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>112</v>
       </c>
@@ -5108,7 +5106,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>113</v>
       </c>
@@ -5124,7 +5122,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>114</v>
       </c>
@@ -5140,7 +5138,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>123</v>
       </c>
@@ -5156,11 +5154,11 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +5178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>92</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>120</v>
       </c>
@@ -5220,7 +5218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>124</v>
       </c>
@@ -5240,7 +5238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>1</v>
       </c>
@@ -5260,7 +5258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>121</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>111</v>
       </c>
@@ -5300,7 +5298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -5308,7 +5306,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -5319,7 +5317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -5327,7 +5325,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -5335,7 +5333,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>12</v>
       </c>
@@ -5346,7 +5344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5354,7 +5352,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5380,19 +5378,19 @@
       <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -5410,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>148</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -5442,11 +5440,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>113</v>
       </c>
@@ -5462,7 +5460,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>114</v>
       </c>
@@ -5478,7 +5476,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>123</v>
       </c>
@@ -5494,11 +5492,11 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>0</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>92</v>
       </c>
@@ -5538,7 +5536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>112</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>120</v>
       </c>
@@ -5578,7 +5576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>124</v>
       </c>
@@ -5598,7 +5596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>1</v>
       </c>
@@ -5618,7 +5616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>149</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -5646,7 +5644,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -5665,7 +5663,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -5673,7 +5671,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>12</v>
       </c>
@@ -5684,7 +5682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5692,7 +5690,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5714,22 +5712,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64AB570-BFC1-4B04-BC88-2752E218D317}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="D8" zoomScale="81" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="29.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" customWidth="1"/>
-    <col min="10" max="10" width="34.06640625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5748,15 +5746,15 @@
       </c>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="17">
         <v>100</v>
       </c>
@@ -5770,12 +5768,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="19">
         <v>100</v>
       </c>
@@ -5789,12 +5787,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="21">
         <v>100</v>
       </c>
@@ -5808,12 +5806,12 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="23">
         <v>100</v>
       </c>
@@ -5827,14 +5825,14 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="21">
         <v>50</v>
       </c>
@@ -5848,12 +5846,12 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="23">
         <v>70</v>
       </c>
@@ -5861,12 +5859,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="23">
         <v>15</v>
       </c>
@@ -5878,12 +5876,12 @@
       </c>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="23">
         <v>20</v>
       </c>
@@ -5897,12 +5895,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="17">
         <v>80</v>
       </c>
@@ -5917,14 +5915,14 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="21">
         <v>70</v>
       </c>
@@ -5940,12 +5938,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="23">
         <v>50</v>
       </c>
@@ -5961,12 +5959,12 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="17">
         <v>30</v>
       </c>
@@ -5982,12 +5980,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="17">
         <v>15</v>
       </c>
@@ -5996,12 +5994,12 @@
       </c>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="19">
         <v>30</v>
       </c>
@@ -6014,12 +6012,12 @@
       </c>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="21">
         <v>30</v>
       </c>
@@ -6033,14 +6031,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="23">
         <v>140</v>
       </c>
@@ -6052,14 +6050,14 @@
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="23">
         <v>40</v>
       </c>
@@ -6071,12 +6069,12 @@
       </c>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="21">
         <v>110</v>
       </c>
@@ -6088,12 +6086,12 @@
       </c>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="23">
         <v>270</v>
       </c>
@@ -6105,12 +6103,12 @@
       </c>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="23">
         <v>50</v>
       </c>
@@ -6118,12 +6116,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="23">
         <v>300</v>
       </c>
@@ -6135,12 +6133,12 @@
       </c>
       <c r="J23" s="42"/>
     </row>
-    <row r="24" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="23">
         <v>20</v>
       </c>
@@ -6154,12 +6152,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="23">
         <v>20</v>
       </c>
@@ -6176,12 +6174,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="23">
         <v>130</v>
       </c>
@@ -6198,12 +6196,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="17">
         <v>200</v>
       </c>
@@ -6221,12 +6219,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="21">
         <v>200</v>
       </c>
@@ -6243,14 +6241,14 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="21" t="s">
         <v>102</v>
       </c>
@@ -6258,14 +6256,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="23" t="s">
         <v>106</v>
       </c>
@@ -6273,12 +6271,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="19" t="s">
         <v>97</v>
       </c>
@@ -6286,14 +6284,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="21" t="s">
         <v>177</v>
       </c>
@@ -6301,14 +6299,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="23" t="s">
         <v>133</v>
       </c>
@@ -6317,14 +6315,14 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="23" t="s">
         <v>136</v>
       </c>
@@ -6332,14 +6330,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="19">
         <v>800</v>
       </c>
@@ -6347,12 +6345,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="16"/>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="23">
         <v>110</v>
       </c>
@@ -6360,12 +6358,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="21">
         <v>200</v>
       </c>
@@ -6374,14 +6372,14 @@
       </c>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="23" t="s">
         <v>122</v>
       </c>
@@ -6389,12 +6387,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="21" t="s">
         <v>99</v>
       </c>
@@ -6402,14 +6400,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="23" t="s">
         <v>122</v>
       </c>
@@ -6417,14 +6415,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="21">
         <v>150</v>
       </c>
@@ -6433,14 +6431,14 @@
       </c>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="21" t="s">
         <v>97</v>
       </c>
@@ -6448,11 +6446,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="44" t="s">
+    <row r="43" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="44"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="19" t="s">
         <v>155</v>
       </c>
@@ -6460,14 +6458,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="43"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="17" t="s">
         <v>161</v>
       </c>
@@ -6475,11 +6473,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="45" t="s">
+    <row r="45" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="21" t="s">
         <v>97</v>
       </c>
@@ -6487,11 +6485,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="46" t="s">
+    <row r="46" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="46"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="23" t="s">
         <v>164</v>
       </c>
@@ -6499,11 +6497,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="44" t="s">
+    <row r="47" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="19" t="s">
         <v>156</v>
       </c>
@@ -6511,14 +6509,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="19" t="s">
         <v>177</v>
       </c>
@@ -6526,11 +6524,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="45" t="s">
+    <row r="49" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="21" t="s">
         <v>98</v>
       </c>
@@ -6538,14 +6536,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="21" t="s">
         <v>181</v>
       </c>
@@ -6553,11 +6551,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="46" t="s">
+    <row r="51" spans="2:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="46"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="23" t="s">
         <v>180</v>
       </c>
@@ -6567,6 +6565,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I16:J16"/>
@@ -6583,44 +6619,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6635,19 +6633,19 @@
       <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -6665,7 +6663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>151</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>114</v>
       </c>
@@ -6713,7 +6711,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>123</v>
       </c>
@@ -6729,11 +6727,11 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>92</v>
       </c>
@@ -6773,7 +6771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>113</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>120</v>
       </c>
@@ -6813,7 +6811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>124</v>
       </c>
@@ -6833,7 +6831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>1</v>
       </c>
@@ -6853,7 +6851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>112</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -6881,7 +6879,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>13</v>
       </c>
@@ -6892,7 +6890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -6900,7 +6898,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -6908,7 +6906,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>12</v>
       </c>
@@ -6919,7 +6917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6927,7 +6925,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -6953,19 +6951,19 @@
       <selection activeCell="B15" sqref="B15:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -6983,7 +6981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>153</v>
       </c>
@@ -7001,7 +6999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -7015,7 +7013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>123</v>
       </c>
@@ -7031,11 +7029,11 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>0</v>
       </c>
@@ -7055,7 +7053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
         <v>92</v>
       </c>
@@ -7075,7 +7073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -7095,7 +7093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>120</v>
       </c>
@@ -7115,8 +7113,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>1</v>
       </c>
@@ -7136,7 +7134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>113</v>
       </c>
@@ -7156,7 +7154,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>124</v>
       </c>
@@ -7176,7 +7174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>13</v>
       </c>
@@ -7187,7 +7185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -7195,7 +7193,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -7203,7 +7201,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>12</v>
       </c>
@@ -7214,7 +7212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -7222,7 +7220,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -7248,19 +7246,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -7278,7 +7276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>157</v>
       </c>
@@ -7296,7 +7294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -7310,15 +7308,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>0</v>
       </c>
@@ -7338,7 +7336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
         <v>92</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -7378,7 +7376,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>120</v>
       </c>
@@ -7398,7 +7396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>123</v>
       </c>
@@ -7418,7 +7416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>1</v>
       </c>
@@ -7438,7 +7436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>13</v>
       </c>
@@ -7449,7 +7447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -7457,7 +7455,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -7465,7 +7463,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>12</v>
       </c>
@@ -7476,7 +7474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7484,7 +7482,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7510,19 +7508,19 @@
       <selection activeCell="B19" sqref="B19:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>160</v>
       </c>
@@ -7558,7 +7556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -7572,7 +7570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>166</v>
       </c>
@@ -7588,7 +7586,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>167</v>
       </c>
@@ -7604,7 +7602,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>168</v>
       </c>
@@ -7620,7 +7618,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>170</v>
       </c>
@@ -7636,7 +7634,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>169</v>
       </c>
@@ -7652,7 +7650,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
         <v>171</v>
       </c>
@@ -7668,7 +7666,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>172</v>
       </c>
@@ -7684,7 +7682,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>173</v>
       </c>
@@ -7700,7 +7698,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>174</v>
       </c>
@@ -7716,11 +7714,11 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>0</v>
       </c>
@@ -7740,7 +7738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>1</v>
       </c>
@@ -7760,7 +7758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>92</v>
       </c>
@@ -7780,7 +7778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>114</v>
       </c>
@@ -7800,7 +7798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>120</v>
       </c>
@@ -7820,7 +7818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>123</v>
       </c>
@@ -7840,7 +7838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -7851,7 +7849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>165</v>
       </c>
@@ -7865,7 +7863,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -7873,7 +7871,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>12</v>
       </c>
@@ -7884,7 +7882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -7892,7 +7890,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -7918,19 +7916,19 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -7948,7 +7946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>175</v>
       </c>
@@ -7966,7 +7964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -7980,7 +7978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>167</v>
       </c>
@@ -7996,7 +7994,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>168</v>
       </c>
@@ -8012,7 +8010,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>170</v>
       </c>
@@ -8028,7 +8026,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>169</v>
       </c>
@@ -8044,7 +8042,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>171</v>
       </c>
@@ -8060,11 +8058,11 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8084,7 +8082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>172</v>
       </c>
@@ -8104,7 +8102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>173</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>174</v>
       </c>
@@ -8144,7 +8142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>166</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -8172,7 +8170,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>1</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -8200,7 +8198,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -8219,7 +8217,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -8227,7 +8225,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>12</v>
       </c>
@@ -8238,7 +8236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -8246,7 +8244,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -8272,19 +8270,19 @@
       <selection activeCell="B18" sqref="B18:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -8302,7 +8300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>176</v>
       </c>
@@ -8320,7 +8318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -8334,7 +8332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>168</v>
       </c>
@@ -8350,7 +8348,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>170</v>
       </c>
@@ -8366,7 +8364,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>169</v>
       </c>
@@ -8382,11 +8380,11 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>171</v>
       </c>
@@ -8426,7 +8424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>167</v>
       </c>
@@ -8446,7 +8444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>173</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>174</v>
       </c>
@@ -8486,7 +8484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -8494,7 +8492,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>1</v>
       </c>
@@ -8514,7 +8512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
         <v>172</v>
       </c>
@@ -8534,7 +8532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
         <v>166</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -8562,7 +8560,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -8581,7 +8579,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -8589,7 +8587,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>12</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -8608,7 +8606,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -8634,19 +8632,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -8664,7 +8662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>178</v>
       </c>
@@ -8682,7 +8680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -8696,7 +8694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>168</v>
       </c>
@@ -8712,7 +8710,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>170</v>
       </c>
@@ -8728,7 +8726,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>169</v>
       </c>
@@ -8744,11 +8742,11 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>0</v>
       </c>
@@ -8768,7 +8766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>171</v>
       </c>
@@ -8788,7 +8786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>167</v>
       </c>
@@ -8808,7 +8806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>173</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>174</v>
       </c>
@@ -8848,7 +8846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -8856,7 +8854,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>1</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -8884,7 +8882,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -8892,7 +8890,7 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -8900,7 +8898,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -8911,7 +8909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -8919,7 +8917,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -8927,7 +8925,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>12</v>
       </c>
@@ -8938,7 +8936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -8946,7 +8944,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -8972,19 +8970,19 @@
       <selection activeCell="B16" sqref="B16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -9002,7 +9000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>179</v>
       </c>
@@ -9020,7 +9018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -9034,7 +9032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>168</v>
       </c>
@@ -9050,7 +9048,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>170</v>
       </c>
@@ -9066,7 +9064,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>169</v>
       </c>
@@ -9082,11 +9080,11 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>0</v>
       </c>
@@ -9106,7 +9104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>171</v>
       </c>
@@ -9126,7 +9124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>174</v>
       </c>
@@ -9146,7 +9144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9154,7 +9152,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>1</v>
       </c>
@@ -9174,7 +9172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>167</v>
       </c>
@@ -9194,7 +9192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
         <v>173</v>
       </c>
@@ -9214,7 +9212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -9222,7 +9220,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>13</v>
       </c>
@@ -9233,7 +9231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -9241,7 +9239,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -9249,7 +9247,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>12</v>
       </c>
@@ -9260,7 +9258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9268,7 +9266,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -9294,19 +9292,19 @@
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -9324,7 +9322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>182</v>
       </c>
@@ -9342,7 +9340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -9356,7 +9354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>168</v>
       </c>
@@ -9372,7 +9370,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>170</v>
       </c>
@@ -9388,11 +9386,11 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
@@ -9412,7 +9410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>169</v>
       </c>
@@ -9432,7 +9430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
         <v>183</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>184</v>
       </c>
@@ -9472,7 +9470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>174</v>
       </c>
@@ -9492,7 +9490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9500,7 +9498,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>1</v>
       </c>
@@ -9520,7 +9518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -9528,7 +9526,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -9536,7 +9534,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>13</v>
       </c>
@@ -9547,7 +9545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -9555,7 +9553,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -9563,7 +9561,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>12</v>
       </c>
@@ -9574,7 +9572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -9582,7 +9580,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9608,19 +9606,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
@@ -9638,7 +9636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>206</v>
       </c>
@@ -9656,7 +9654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
@@ -9670,7 +9668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>168</v>
       </c>
@@ -9686,7 +9684,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>170</v>
       </c>
@@ -9702,11 +9700,11 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
@@ -9726,7 +9724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>169</v>
       </c>
@@ -9746,7 +9744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
         <v>183</v>
       </c>
@@ -9766,7 +9764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>184</v>
       </c>
@@ -9786,7 +9784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>174</v>
       </c>
@@ -9806,7 +9804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9814,7 +9812,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>1</v>
       </c>
@@ -9834,7 +9832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -9842,7 +9840,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -9850,7 +9848,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>13</v>
       </c>
@@ -9861,7 +9859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -9869,7 +9867,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -9877,7 +9875,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>12</v>
       </c>
@@ -9888,7 +9886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -9896,7 +9894,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9922,19 +9920,19 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
@@ -9952,7 +9950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
@@ -9970,7 +9968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
@@ -9984,7 +9982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -9992,7 +9990,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10000,7 +9998,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -10020,8 +10018,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -10029,12 +10027,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
@@ -10054,7 +10052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
@@ -10074,7 +10072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -10082,7 +10080,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
@@ -10093,7 +10091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -10101,7 +10099,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -10109,7 +10107,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
@@ -10120,7 +10118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -10128,7 +10126,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -10155,19 +10153,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
@@ -10185,7 +10183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>78</v>
       </c>
@@ -10203,7 +10201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
@@ -10217,7 +10215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -10225,7 +10223,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10233,7 +10231,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
@@ -10253,7 +10251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
@@ -10273,8 +10271,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -10294,7 +10292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>41</v>
       </c>
@@ -10314,7 +10312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>39</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
@@ -10354,7 +10352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
@@ -10374,7 +10372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -10385,7 +10383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10393,7 +10391,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -10401,7 +10399,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
@@ -10412,7 +10410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -10420,7 +10418,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10446,19 +10444,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
@@ -10476,7 +10474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>58</v>
       </c>
@@ -10494,7 +10492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
@@ -10508,7 +10506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
@@ -10524,7 +10522,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -10540,7 +10538,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
@@ -10556,7 +10554,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>54</v>
       </c>
@@ -10572,7 +10570,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>0</v>
       </c>
@@ -10592,7 +10590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
@@ -10612,7 +10610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -10620,7 +10618,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>1</v>
       </c>
@@ -10640,7 +10638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -10648,7 +10646,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -10656,7 +10654,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -10664,7 +10662,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>13</v>
       </c>
@@ -10675,7 +10673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
@@ -10689,7 +10687,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -10697,7 +10695,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>12</v>
       </c>
@@ -10708,7 +10706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10716,7 +10714,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -10742,19 +10740,19 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
@@ -10772,7 +10770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>59</v>
       </c>
@@ -10790,7 +10788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
@@ -10804,7 +10802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
@@ -10820,7 +10818,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -10836,7 +10834,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
@@ -10852,7 +10850,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>54</v>
       </c>
@@ -10868,7 +10866,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>0</v>
       </c>
@@ -10888,7 +10886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>38</v>
       </c>
@@ -10908,7 +10906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -10916,7 +10914,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>1</v>
       </c>
@@ -10936,7 +10934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -10944,7 +10942,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -10952,7 +10950,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -10960,7 +10958,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
@@ -10971,7 +10969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -10979,7 +10977,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -10987,7 +10985,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>12</v>
       </c>
@@ -10998,7 +10996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -11006,7 +11004,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -11032,19 +11030,19 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
@@ -11062,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -11080,7 +11078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>24</v>
       </c>
@@ -11094,7 +11092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -11102,7 +11100,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -11110,7 +11108,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
@@ -11130,7 +11128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>73</v>
       </c>
@@ -11150,7 +11148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -11158,7 +11156,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
         <v>1</v>
       </c>
@@ -11178,7 +11176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>61</v>
       </c>
@@ -11198,7 +11196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>47</v>
       </c>
@@ -11218,7 +11216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
@@ -11238,7 +11236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>49</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>54</v>
       </c>
@@ -11278,7 +11276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>13</v>
       </c>
@@ -11289,7 +11287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -11297,7 +11295,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -11305,7 +11303,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="31" t="s">
         <v>12</v>
       </c>
@@ -11316,7 +11314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -11324,7 +11322,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -11350,19 +11348,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
@@ -11380,7 +11378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>69</v>
       </c>
@@ -11398,7 +11396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>24</v>
       </c>
@@ -11412,7 +11410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>74</v>
       </c>
@@ -11428,7 +11426,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -11436,7 +11434,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
@@ -11456,7 +11454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>70</v>
       </c>
@@ -11476,7 +11474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>72</v>
       </c>
@@ -11496,7 +11494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>76</v>
       </c>
@@ -11516,7 +11514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>77</v>
       </c>
@@ -11536,7 +11534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
@@ -11556,7 +11554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>71</v>
       </c>
@@ -11576,7 +11574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -11584,7 +11582,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -11592,7 +11590,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>13</v>
       </c>
@@ -11603,7 +11601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -11611,7 +11609,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -11619,7 +11617,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="31" t="s">
         <v>12</v>
       </c>
@@ -11630,7 +11628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -11638,7 +11636,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -11664,19 +11662,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.265625" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
@@ -11694,7 +11692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>79</v>
       </c>
@@ -11712,7 +11710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>24</v>
       </c>
@@ -11726,7 +11724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -11734,7 +11732,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -11742,7 +11740,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>0</v>
       </c>
@@ -11762,7 +11760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
         <v>88</v>
       </c>
@@ -11782,7 +11780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>90</v>
       </c>
@@ -11802,7 +11800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="34" t="s">
         <v>91</v>
       </c>
@@ -11822,7 +11820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="34" t="s">
         <v>92</v>
       </c>
@@ -11842,7 +11840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
         <v>76</v>
       </c>
@@ -11862,7 +11860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -11870,7 +11868,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>1</v>
       </c>
@@ -11890,7 +11888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>74</v>
       </c>
@@ -11910,7 +11908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>72</v>
       </c>
@@ -11950,7 +11948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>84</v>
       </c>
@@ -11970,7 +11968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>85</v>
       </c>
@@ -11990,7 +11988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>86</v>
       </c>
@@ -12010,7 +12008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>83</v>
       </c>
@@ -12030,7 +12028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>82</v>
       </c>
@@ -12050,7 +12048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>87</v>
       </c>
@@ -12070,7 +12068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>81</v>
       </c>
@@ -12090,7 +12088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -12098,7 +12096,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="30" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="33" t="s">
         <v>13</v>
       </c>
@@ -12109,7 +12107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -12117,7 +12115,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -12125,7 +12123,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>12</v>
       </c>
@@ -12136,7 +12134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -12144,7 +12142,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" s="14" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
